--- a/support/add_sectors/master.xlsx
+++ b/support/add_sectors/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/ExioSteel/support/add_sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA31AF-2417-624D-A72A-CD211F1893EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62143BE-7219-6649-A59B-4578D7380C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="26880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="812">
   <si>
     <t>Region</t>
   </si>
@@ -2471,44 +2471,28 @@
     <t>Employment: Vulnerable employment</t>
   </si>
   <si>
-    <t>Electricity from fossil fuels</t>
-  </si>
-  <si>
-    <t>Electricity from nuclear</t>
-  </si>
-  <si>
-    <t>Electricity from renewables</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
     <t>Rinaldi,Ghezzi et al 2024</t>
   </si>
   <si>
-    <t>Rinaldi,Ghezzi et al 2025</t>
-  </si>
-  <si>
-    <t>Rinaldi,Ghezzi et al 2026</t>
-  </si>
-  <si>
-    <t>Rinaldi,Ghezzi et al 2027</t>
-  </si>
-  <si>
-    <t>Rinaldi,Ghezzi et al 2028</t>
-  </si>
-  <si>
-    <t>Rinaldi,Ghezzi et al 2029</t>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2538,6 +2522,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2590,10 +2581,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2608,9 +2600,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2914,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3226,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3262,34 +3258,89 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.13179666400000001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>-0.8528</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5" t="s">
-        <v>815</v>
-      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3298,13 +3349,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -3333,33 +3394,677 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2.9996189999999998E-3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2.9983240000000001E-3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>71.248513674197383</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -3372,10 +4077,20 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -3404,34 +4119,42 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>-0.8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="5" t="s">
-        <v>813</v>
-      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="5" t="s">
-        <v>814</v>
-      </c>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5" t="s">
-        <v>815</v>
-      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3442,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C709"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262:C277"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11275,7 +11998,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11870,16 +12593,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
@@ -11930,11 +12653,14 @@
       <c r="E2" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11953,11 +12679,14 @@
       <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -11976,80 +12705,40 @@
       <c r="E4" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>42</v>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>810</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>0.51705287995693072</v>
+      <c r="A5">
+        <v>1.2542500000000001</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>808</v>
+        <v>302</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>808</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>811</v>
+        <v>302</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>810</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>0.29649301958370766</v>
-      </c>
-      <c r="B6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
         <v>809</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>809</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>0.44070073885936156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>810</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>810</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -12060,14 +12749,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12098,49 +12794,206 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>5.7189600000000004E-3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.2520640000000002E-2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.2901960000000001E-2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.5102960000000001E-2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.297296E-2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6.9749679999999994E-2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2.27136E-3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12169,33 +13022,176 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>4.0146105919003111E-8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.2265240000000001E-3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2.2579291132186622E-8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9.2847034381941373E-3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1.0805744449389311E-5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1.9244424664985413E-8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>1.1370000000000001E-6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -12205,13 +13201,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12240,33 +13246,81 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>5.0294789999999994E-8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1.9230769230769231E-4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.66918E-4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -12276,13 +13330,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12311,33 +13375,676 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2.9996189999999998E-3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>817</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2.9983240000000001E-3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>89.864674372709345</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.04</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3.4148E-3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -12350,10 +14057,20 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12382,34 +14099,111 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>7.2497745716862037</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1.8124436429215507</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>810</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>-5.2256119372476872E-2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12421,10 +14215,20 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -12453,34 +14257,89 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0.13179666400000001</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>810</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>811</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5" t="s">
-        <v>815</v>
-      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5" t="s">
-        <v>816</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
-        <v>817</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/support/add_sectors/master.xlsx
+++ b/support/add_sectors/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/ExioSteel/support/add_sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62143BE-7219-6649-A59B-4578D7380C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF70D14-E5A9-924F-B804-7B309ECCDF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9240" yWindow="-28300" windowWidth="51200" windowHeight="26880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -2910,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2924,7 +2924,7 @@
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -12595,8 +12595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12752,7 +12752,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12985,13 +12985,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13203,8 +13204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13332,7 +13333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>

--- a/support/add_sectors/master.xlsx
+++ b/support/add_sectors/master.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzorinaldi/Documents/GitHub/SESAM/ExioSteel/support/add_sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF70D14-E5A9-924F-B804-7B309ECCDF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BED5ED-4C93-4145-8DEC-3BA6AD9F3414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Regions Map" sheetId="2" r:id="rId2"/>
+    <sheet name="Regions Clusters" sheetId="2" r:id="rId2"/>
     <sheet name="SR" sheetId="3" r:id="rId3"/>
     <sheet name="ELZ" sheetId="4" r:id="rId4"/>
     <sheet name="H2 SR" sheetId="5" r:id="rId5"/>
@@ -27,25 +27,12 @@
     <sheet name="Steel BF-BOF+CCUS" sheetId="12" r:id="rId12"/>
     <sheet name="DB units" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="811">
   <si>
     <t>Region</t>
   </si>
@@ -56,19 +43,19 @@
     <t>Commodity</t>
   </si>
   <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>FU quantity</t>
-  </si>
-  <si>
-    <t>FU unit</t>
+    <t>Inventory sheet</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>Market share</t>
   </si>
   <si>
-    <t>Total output</t>
+    <t>Final consumption</t>
   </si>
   <si>
     <t>Consumption category</t>
@@ -80,7 +67,10 @@
     <t>Leave empty</t>
   </si>
   <si>
-    <t>Reference</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>GLOBAL</t>
@@ -182,6 +172,9 @@
     <t>No EU</t>
   </si>
   <si>
+    <t>EU</t>
+  </si>
+  <si>
     <t>AT</t>
   </si>
   <si>
@@ -203,43 +196,55 @@
     <t>CH</t>
   </si>
   <si>
+    <t>CY</t>
+  </si>
+  <si>
     <t>CN</t>
   </si>
   <si>
+    <t>CZ</t>
+  </si>
+  <si>
     <t>GB</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>DK</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
-    <t>CY</t>
+    <t>EE</t>
   </si>
   <si>
     <t>JP</t>
   </si>
   <si>
-    <t>CZ</t>
+    <t>ES</t>
   </si>
   <si>
     <t>KR</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>FI</t>
   </si>
   <si>
     <t>MX</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>FR</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>EE</t>
+    <t>GR</t>
   </si>
   <si>
     <t>TR</t>
@@ -248,60 +253,48 @@
     <t>RU</t>
   </si>
   <si>
-    <t>ES</t>
+    <t>HR</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>FI</t>
+    <t>HU</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>IE</t>
   </si>
   <si>
     <t>WE</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>WF</t>
   </si>
   <si>
-    <t>GR</t>
+    <t>LT</t>
   </si>
   <si>
     <t>WL</t>
   </si>
   <si>
-    <t>HR</t>
+    <t>LU</t>
   </si>
   <si>
     <t>WM</t>
   </si>
   <si>
-    <t>HU</t>
+    <t>LV</t>
   </si>
   <si>
     <t>ZA</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -326,16 +319,10 @@
     <t>SK</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
-    <t>Item</t>
+    <t>Item type</t>
   </si>
   <si>
     <t>DB Item</t>
@@ -344,7 +331,7 @@
     <t>DB Region</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Change type</t>
   </si>
   <si>
     <t>unit</t>
@@ -2471,13 +2458,10 @@
     <t>Employment: Vulnerable employment</t>
   </si>
   <si>
-    <t>EU</t>
+    <t>Update</t>
   </si>
   <si>
     <t>Rinaldi,Ghezzi et al 2024</t>
-  </si>
-  <si>
-    <t>Update</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -2492,7 +2476,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,19 +2500,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2583,7 +2561,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2596,13 +2574,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2908,29 +2886,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,253 +2931,256 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3223,20 +3190,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -3256,13 +3223,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0.13179666400000001</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>284</v>
@@ -3274,21 +3244,21 @@
         <v>284</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>287</v>
@@ -3300,21 +3270,21 @@
         <v>287</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>-0.8528</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
@@ -3327,20 +3297,11 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3349,30 +3310,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -3392,13 +3343,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>267</v>
@@ -3410,47 +3364,47 @@
         <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>271</v>
@@ -3462,21 +3416,21 @@
         <v>271</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>281</v>
@@ -3488,21 +3442,21 @@
         <v>281</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>281</v>
@@ -3514,21 +3468,21 @@
         <v>281</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2.9996189999999998E-3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>282</v>
@@ -3540,21 +3494,21 @@
         <v>282</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>284</v>
@@ -3566,21 +3520,21 @@
         <v>284</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -3592,21 +3546,21 @@
         <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -3618,21 +3572,21 @@
         <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -3644,21 +3598,21 @@
         <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>287</v>
@@ -3670,21 +3624,21 @@
         <v>287</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>289</v>
@@ -3696,21 +3650,21 @@
         <v>289</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2.9983240000000001E-3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>301</v>
@@ -3722,47 +3676,47 @@
         <v>301</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>319</v>
@@ -3774,10 +3728,10 @@
         <v>319</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>809</v>
@@ -3788,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>323</v>
@@ -3800,21 +3754,21 @@
         <v>323</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>1.5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>329</v>
@@ -3826,10 +3780,10 @@
         <v>329</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>809</v>
@@ -3840,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>335</v>
@@ -3852,10 +3806,10 @@
         <v>335</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>809</v>
@@ -3866,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>336</v>
@@ -3878,21 +3832,21 @@
         <v>336</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>348</v>
@@ -3904,10 +3858,10 @@
         <v>348</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>809</v>
@@ -3918,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>355</v>
@@ -3930,10 +3884,10 @@
         <v>355</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>809</v>
@@ -3956,10 +3910,10 @@
         <v>416</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>809</v>
@@ -3970,22 +3924,22 @@
         <v>71.248513674197383</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>809</v>
@@ -3996,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>421</v>
@@ -4008,21 +3962,21 @@
         <v>421</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="10">
         <v>0.04</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
@@ -4035,7 +3989,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>809</v>
@@ -4058,10 +4012,10 @@
         <v>302</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>809</v>
@@ -4074,30 +4028,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -4117,13 +4061,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
         <v>-0.8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
@@ -4135,26 +4082,11 @@
         <v>499</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4165,16 +4097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C709"/>
   <sheetViews>
-    <sheetView topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
@@ -4769,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>102</v>
@@ -5960,7 +5885,7 @@
         <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5982,7 +5907,7 @@
         <v>265</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -5993,7 +5918,7 @@
         <v>266</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -6004,7 +5929,7 @@
         <v>106</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -6015,7 +5940,7 @@
         <v>267</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -6037,7 +5962,7 @@
         <v>270</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -6048,7 +5973,7 @@
         <v>271</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -6056,10 +5981,10 @@
         <v>2</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -6070,7 +5995,7 @@
         <v>272</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -6081,7 +6006,7 @@
         <v>273</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -6092,7 +6017,7 @@
         <v>274</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -6103,7 +6028,7 @@
         <v>275</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -6114,7 +6039,7 @@
         <v>276</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -6125,7 +6050,7 @@
         <v>277</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -6147,7 +6072,7 @@
         <v>279</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -6158,7 +6083,7 @@
         <v>280</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -6169,7 +6094,7 @@
         <v>281</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6180,7 +6105,7 @@
         <v>282</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -6191,7 +6116,7 @@
         <v>283</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -6202,7 +6127,7 @@
         <v>284</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -6213,7 +6138,7 @@
         <v>285</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -6224,7 +6149,7 @@
         <v>112</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -6235,7 +6160,7 @@
         <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -6246,7 +6171,7 @@
         <v>287</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -6257,7 +6182,7 @@
         <v>288</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -6268,7 +6193,7 @@
         <v>289</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -6312,7 +6237,7 @@
         <v>293</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -6323,7 +6248,7 @@
         <v>294</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -6334,7 +6259,7 @@
         <v>295</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -6345,7 +6270,7 @@
         <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -6356,7 +6281,7 @@
         <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -6400,7 +6325,7 @@
         <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -6422,7 +6347,7 @@
         <v>304</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -6444,7 +6369,7 @@
         <v>305</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -6466,7 +6391,7 @@
         <v>307</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -6477,7 +6402,7 @@
         <v>308</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -6488,7 +6413,7 @@
         <v>309</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -6554,7 +6479,7 @@
         <v>315</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -6565,7 +6490,7 @@
         <v>316</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -6576,7 +6501,7 @@
         <v>317</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -6587,7 +6512,7 @@
         <v>318</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -6598,7 +6523,7 @@
         <v>319</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -6609,7 +6534,7 @@
         <v>320</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -6620,7 +6545,7 @@
         <v>321</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -6642,7 +6567,7 @@
         <v>323</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -6708,7 +6633,7 @@
         <v>329</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -6719,7 +6644,7 @@
         <v>330</v>
       </c>
       <c r="C232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -6730,7 +6655,7 @@
         <v>331</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,7 +6666,7 @@
         <v>332</v>
       </c>
       <c r="C234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -6752,7 +6677,7 @@
         <v>333</v>
       </c>
       <c r="C235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -6763,7 +6688,7 @@
         <v>334</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -6774,7 +6699,7 @@
         <v>335</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -6785,7 +6710,7 @@
         <v>336</v>
       </c>
       <c r="C238" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -6796,7 +6721,7 @@
         <v>337</v>
       </c>
       <c r="C239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -6807,7 +6732,7 @@
         <v>338</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -6840,7 +6765,7 @@
         <v>180</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -6851,7 +6776,7 @@
         <v>341</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -6862,7 +6787,7 @@
         <v>342</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,7 +6809,7 @@
         <v>344</v>
       </c>
       <c r="C247" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -6906,7 +6831,7 @@
         <v>191</v>
       </c>
       <c r="C249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -6917,7 +6842,7 @@
         <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -6928,7 +6853,7 @@
         <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -6939,7 +6864,7 @@
         <v>348</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -6950,7 +6875,7 @@
         <v>349</v>
       </c>
       <c r="C253" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -6961,7 +6886,7 @@
         <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -6983,7 +6908,7 @@
         <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -6994,7 +6919,7 @@
         <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -7016,7 +6941,7 @@
         <v>355</v>
       </c>
       <c r="C259" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -7027,7 +6952,7 @@
         <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -7038,7 +6963,7 @@
         <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -7071,7 +6996,7 @@
         <v>360</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -7082,7 +7007,7 @@
         <v>361</v>
       </c>
       <c r="C265" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -7093,7 +7018,7 @@
         <v>362</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -7137,7 +7062,7 @@
         <v>366</v>
       </c>
       <c r="C270" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -7148,7 +7073,7 @@
         <v>196</v>
       </c>
       <c r="C271" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -7159,7 +7084,7 @@
         <v>367</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -7170,7 +7095,7 @@
         <v>368</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -7225,7 +7150,7 @@
         <v>373</v>
       </c>
       <c r="C278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -7236,7 +7161,7 @@
         <v>374</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -7247,7 +7172,7 @@
         <v>375</v>
       </c>
       <c r="C280" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -7258,7 +7183,7 @@
         <v>376</v>
       </c>
       <c r="C281" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -7269,7 +7194,7 @@
         <v>377</v>
       </c>
       <c r="C282" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -7280,7 +7205,7 @@
         <v>378</v>
       </c>
       <c r="C283" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -7313,7 +7238,7 @@
         <v>381</v>
       </c>
       <c r="C286" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -7335,7 +7260,7 @@
         <v>383</v>
       </c>
       <c r="C288" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -7346,7 +7271,7 @@
         <v>384</v>
       </c>
       <c r="C289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -7357,7 +7282,7 @@
         <v>385</v>
       </c>
       <c r="C290" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -7368,7 +7293,7 @@
         <v>386</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -7390,7 +7315,7 @@
         <v>205</v>
       </c>
       <c r="C293" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -7401,7 +7326,7 @@
         <v>387</v>
       </c>
       <c r="C294" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -7412,7 +7337,7 @@
         <v>388</v>
       </c>
       <c r="C295" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -7423,7 +7348,7 @@
         <v>389</v>
       </c>
       <c r="C296" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -7434,7 +7359,7 @@
         <v>390</v>
       </c>
       <c r="C297" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,7 +7381,7 @@
         <v>225</v>
       </c>
       <c r="C299" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -7467,7 +7392,7 @@
         <v>392</v>
       </c>
       <c r="C300" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -7489,7 +7414,7 @@
         <v>228</v>
       </c>
       <c r="C302" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -7522,7 +7447,7 @@
         <v>396</v>
       </c>
       <c r="C305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -7533,7 +7458,7 @@
         <v>397</v>
       </c>
       <c r="C306" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -7588,7 +7513,7 @@
         <v>402</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -7610,7 +7535,7 @@
         <v>404</v>
       </c>
       <c r="C313" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -7786,7 +7711,7 @@
         <v>420</v>
       </c>
       <c r="C329" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -7797,7 +7722,7 @@
         <v>421</v>
       </c>
       <c r="C330" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -7808,7 +7733,7 @@
         <v>422</v>
       </c>
       <c r="C331" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -7819,7 +7744,7 @@
         <v>423</v>
       </c>
       <c r="C332" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -7841,7 +7766,7 @@
         <v>425</v>
       </c>
       <c r="C334" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -7874,7 +7799,7 @@
         <v>428</v>
       </c>
       <c r="C337" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -7907,7 +7832,7 @@
         <v>431</v>
       </c>
       <c r="C340" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -7918,7 +7843,7 @@
         <v>432</v>
       </c>
       <c r="C341" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -7929,7 +7854,7 @@
         <v>433</v>
       </c>
       <c r="C342" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -7940,7 +7865,7 @@
         <v>434</v>
       </c>
       <c r="C343" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -7951,7 +7876,7 @@
         <v>435</v>
       </c>
       <c r="C344" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -7973,7 +7898,7 @@
         <v>437</v>
       </c>
       <c r="C346" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -8017,7 +7942,7 @@
         <v>441</v>
       </c>
       <c r="C350" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -8028,7 +7953,7 @@
         <v>442</v>
       </c>
       <c r="C351" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8611,7 +8536,7 @@
         <v>499</v>
       </c>
       <c r="C404" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -8622,7 +8547,7 @@
         <v>500</v>
       </c>
       <c r="C405" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -8633,7 +8558,7 @@
         <v>501</v>
       </c>
       <c r="C406" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -8644,7 +8569,7 @@
         <v>502</v>
       </c>
       <c r="C407" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -8655,7 +8580,7 @@
         <v>503</v>
       </c>
       <c r="C408" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -8666,7 +8591,7 @@
         <v>504</v>
       </c>
       <c r="C409" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -8677,7 +8602,7 @@
         <v>505</v>
       </c>
       <c r="C410" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,7 +8613,7 @@
         <v>506</v>
       </c>
       <c r="C411" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -8699,7 +8624,7 @@
         <v>507</v>
       </c>
       <c r="C412" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -8710,7 +8635,7 @@
         <v>508</v>
       </c>
       <c r="C413" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -8721,7 +8646,7 @@
         <v>509</v>
       </c>
       <c r="C414" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -8732,7 +8657,7 @@
         <v>510</v>
       </c>
       <c r="C415" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -8743,7 +8668,7 @@
         <v>511</v>
       </c>
       <c r="C416" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -8754,7 +8679,7 @@
         <v>512</v>
       </c>
       <c r="C417" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -8765,7 +8690,7 @@
         <v>513</v>
       </c>
       <c r="C418" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -8776,7 +8701,7 @@
         <v>514</v>
       </c>
       <c r="C419" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -8787,7 +8712,7 @@
         <v>515</v>
       </c>
       <c r="C420" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -8798,7 +8723,7 @@
         <v>516</v>
       </c>
       <c r="C421" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -8809,7 +8734,7 @@
         <v>517</v>
       </c>
       <c r="C422" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -8820,7 +8745,7 @@
         <v>518</v>
       </c>
       <c r="C423" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -8831,7 +8756,7 @@
         <v>519</v>
       </c>
       <c r="C424" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -8842,7 +8767,7 @@
         <v>520</v>
       </c>
       <c r="C425" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -8853,7 +8778,7 @@
         <v>521</v>
       </c>
       <c r="C426" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -8864,7 +8789,7 @@
         <v>522</v>
       </c>
       <c r="C427" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -8875,7 +8800,7 @@
         <v>523</v>
       </c>
       <c r="C428" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -8886,7 +8811,7 @@
         <v>524</v>
       </c>
       <c r="C429" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -8897,7 +8822,7 @@
         <v>525</v>
       </c>
       <c r="C430" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -8908,7 +8833,7 @@
         <v>526</v>
       </c>
       <c r="C431" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -8919,7 +8844,7 @@
         <v>527</v>
       </c>
       <c r="C432" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -8930,7 +8855,7 @@
         <v>528</v>
       </c>
       <c r="C433" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -8941,7 +8866,7 @@
         <v>529</v>
       </c>
       <c r="C434" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -8952,7 +8877,7 @@
         <v>530</v>
       </c>
       <c r="C435" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -8963,7 +8888,7 @@
         <v>531</v>
       </c>
       <c r="C436" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -8974,7 +8899,7 @@
         <v>532</v>
       </c>
       <c r="C437" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -8985,7 +8910,7 @@
         <v>533</v>
       </c>
       <c r="C438" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -8996,7 +8921,7 @@
         <v>534</v>
       </c>
       <c r="C439" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -9007,7 +8932,7 @@
         <v>535</v>
       </c>
       <c r="C440" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -9018,7 +8943,7 @@
         <v>536</v>
       </c>
       <c r="C441" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -9029,7 +8954,7 @@
         <v>537</v>
       </c>
       <c r="C442" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -9040,7 +8965,7 @@
         <v>538</v>
       </c>
       <c r="C443" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -9051,7 +8976,7 @@
         <v>539</v>
       </c>
       <c r="C444" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -9062,7 +8987,7 @@
         <v>540</v>
       </c>
       <c r="C445" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9073,7 +8998,7 @@
         <v>541</v>
       </c>
       <c r="C446" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -9084,7 +9009,7 @@
         <v>542</v>
       </c>
       <c r="C447" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -9095,7 +9020,7 @@
         <v>543</v>
       </c>
       <c r="C448" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -9106,7 +9031,7 @@
         <v>544</v>
       </c>
       <c r="C449" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -9117,7 +9042,7 @@
         <v>545</v>
       </c>
       <c r="C450" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -9128,7 +9053,7 @@
         <v>546</v>
       </c>
       <c r="C451" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -9150,7 +9075,7 @@
         <v>549</v>
       </c>
       <c r="C453" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -9161,7 +9086,7 @@
         <v>550</v>
       </c>
       <c r="C454" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -9172,7 +9097,7 @@
         <v>551</v>
       </c>
       <c r="C455" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -9183,7 +9108,7 @@
         <v>552</v>
       </c>
       <c r="C456" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -9194,7 +9119,7 @@
         <v>553</v>
       </c>
       <c r="C457" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -9205,7 +9130,7 @@
         <v>554</v>
       </c>
       <c r="C458" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9216,7 +9141,7 @@
         <v>555</v>
       </c>
       <c r="C459" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -9227,7 +9152,7 @@
         <v>556</v>
       </c>
       <c r="C460" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -9238,7 +9163,7 @@
         <v>557</v>
       </c>
       <c r="C461" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9249,7 +9174,7 @@
         <v>558</v>
       </c>
       <c r="C462" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9260,7 +9185,7 @@
         <v>559</v>
       </c>
       <c r="C463" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9271,7 +9196,7 @@
         <v>560</v>
       </c>
       <c r="C464" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9282,7 +9207,7 @@
         <v>561</v>
       </c>
       <c r="C465" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9293,7 +9218,7 @@
         <v>562</v>
       </c>
       <c r="C466" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9304,7 +9229,7 @@
         <v>563</v>
       </c>
       <c r="C467" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9315,7 +9240,7 @@
         <v>564</v>
       </c>
       <c r="C468" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9326,7 +9251,7 @@
         <v>565</v>
       </c>
       <c r="C469" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9337,7 +9262,7 @@
         <v>566</v>
       </c>
       <c r="C470" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9348,7 +9273,7 @@
         <v>567</v>
       </c>
       <c r="C471" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9359,7 +9284,7 @@
         <v>568</v>
       </c>
       <c r="C472" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9370,7 +9295,7 @@
         <v>569</v>
       </c>
       <c r="C473" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9381,7 +9306,7 @@
         <v>570</v>
       </c>
       <c r="C474" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9392,7 +9317,7 @@
         <v>571</v>
       </c>
       <c r="C475" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9403,7 +9328,7 @@
         <v>572</v>
       </c>
       <c r="C476" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9414,7 +9339,7 @@
         <v>573</v>
       </c>
       <c r="C477" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9425,7 +9350,7 @@
         <v>574</v>
       </c>
       <c r="C478" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9436,7 +9361,7 @@
         <v>575</v>
       </c>
       <c r="C479" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9447,7 +9372,7 @@
         <v>576</v>
       </c>
       <c r="C480" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -9458,7 +9383,7 @@
         <v>577</v>
       </c>
       <c r="C481" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -9469,7 +9394,7 @@
         <v>578</v>
       </c>
       <c r="C482" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -9480,7 +9405,7 @@
         <v>579</v>
       </c>
       <c r="C483" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -9491,7 +9416,7 @@
         <v>580</v>
       </c>
       <c r="C484" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -9502,7 +9427,7 @@
         <v>581</v>
       </c>
       <c r="C485" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -9513,7 +9438,7 @@
         <v>582</v>
       </c>
       <c r="C486" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -9524,7 +9449,7 @@
         <v>583</v>
       </c>
       <c r="C487" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -9535,7 +9460,7 @@
         <v>584</v>
       </c>
       <c r="C488" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -9546,7 +9471,7 @@
         <v>585</v>
       </c>
       <c r="C489" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -9557,7 +9482,7 @@
         <v>586</v>
       </c>
       <c r="C490" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -9568,7 +9493,7 @@
         <v>587</v>
       </c>
       <c r="C491" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -9579,7 +9504,7 @@
         <v>588</v>
       </c>
       <c r="C492" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -9590,7 +9515,7 @@
         <v>589</v>
       </c>
       <c r="C493" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -9601,7 +9526,7 @@
         <v>590</v>
       </c>
       <c r="C494" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -9612,7 +9537,7 @@
         <v>591</v>
       </c>
       <c r="C495" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -9623,7 +9548,7 @@
         <v>592</v>
       </c>
       <c r="C496" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -9634,7 +9559,7 @@
         <v>593</v>
       </c>
       <c r="C497" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -9645,7 +9570,7 @@
         <v>594</v>
       </c>
       <c r="C498" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -9656,7 +9581,7 @@
         <v>595</v>
       </c>
       <c r="C499" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -9667,7 +9592,7 @@
         <v>596</v>
       </c>
       <c r="C500" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -9678,7 +9603,7 @@
         <v>597</v>
       </c>
       <c r="C501" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -9689,7 +9614,7 @@
         <v>598</v>
       </c>
       <c r="C502" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -9700,7 +9625,7 @@
         <v>599</v>
       </c>
       <c r="C503" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -9711,7 +9636,7 @@
         <v>600</v>
       </c>
       <c r="C504" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -9722,7 +9647,7 @@
         <v>601</v>
       </c>
       <c r="C505" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -9733,7 +9658,7 @@
         <v>602</v>
       </c>
       <c r="C506" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -9744,7 +9669,7 @@
         <v>603</v>
       </c>
       <c r="C507" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -9755,7 +9680,7 @@
         <v>604</v>
       </c>
       <c r="C508" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -9766,7 +9691,7 @@
         <v>605</v>
       </c>
       <c r="C509" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -9777,7 +9702,7 @@
         <v>606</v>
       </c>
       <c r="C510" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -9788,7 +9713,7 @@
         <v>607</v>
       </c>
       <c r="C511" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -9799,7 +9724,7 @@
         <v>608</v>
       </c>
       <c r="C512" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -9810,7 +9735,7 @@
         <v>609</v>
       </c>
       <c r="C513" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -9821,7 +9746,7 @@
         <v>610</v>
       </c>
       <c r="C514" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -9832,7 +9757,7 @@
         <v>611</v>
       </c>
       <c r="C515" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -9843,7 +9768,7 @@
         <v>612</v>
       </c>
       <c r="C516" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -9854,7 +9779,7 @@
         <v>613</v>
       </c>
       <c r="C517" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -9876,7 +9801,7 @@
         <v>615</v>
       </c>
       <c r="C519" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -9887,7 +9812,7 @@
         <v>616</v>
       </c>
       <c r="C520" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -9898,7 +9823,7 @@
         <v>617</v>
       </c>
       <c r="C521" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -9909,7 +9834,7 @@
         <v>618</v>
       </c>
       <c r="C522" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -9920,7 +9845,7 @@
         <v>619</v>
       </c>
       <c r="C523" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -9931,7 +9856,7 @@
         <v>620</v>
       </c>
       <c r="C524" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -9942,7 +9867,7 @@
         <v>621</v>
       </c>
       <c r="C525" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -9953,7 +9878,7 @@
         <v>622</v>
       </c>
       <c r="C526" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -9964,7 +9889,7 @@
         <v>623</v>
       </c>
       <c r="C527" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -9975,7 +9900,7 @@
         <v>624</v>
       </c>
       <c r="C528" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -9986,7 +9911,7 @@
         <v>625</v>
       </c>
       <c r="C529" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -9997,7 +9922,7 @@
         <v>626</v>
       </c>
       <c r="C530" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -10008,7 +9933,7 @@
         <v>627</v>
       </c>
       <c r="C531" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -10019,7 +9944,7 @@
         <v>628</v>
       </c>
       <c r="C532" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -10030,7 +9955,7 @@
         <v>629</v>
       </c>
       <c r="C533" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -10041,7 +9966,7 @@
         <v>630</v>
       </c>
       <c r="C534" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -10052,7 +9977,7 @@
         <v>631</v>
       </c>
       <c r="C535" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -11978,330 +11903,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>808</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
@@ -12309,116 +12234,116 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -12431,159 +12356,159 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -12593,30 +12518,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -12636,13 +12551,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1.35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>265</v>
@@ -12654,47 +12572,47 @@
         <v>265</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>165.6</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>512</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>281</v>
@@ -12706,16 +12624,16 @@
         <v>281</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.2542500000000001</v>
       </c>
@@ -12732,47 +12650,36 @@
         <v>302</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -12792,13 +12699,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>5.7189600000000004E-3</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>281</v>
@@ -12810,21 +12720,21 @@
         <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.2520640000000002E-2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>289</v>
@@ -12836,21 +12746,21 @@
         <v>289</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.2901960000000001E-2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>296</v>
@@ -12862,21 +12772,21 @@
         <v>296</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.5102960000000001E-2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>329</v>
@@ -12888,21 +12798,21 @@
         <v>329</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.297296E-2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>348</v>
@@ -12914,16 +12824,16 @@
         <v>348</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.9749679999999994E-2</v>
       </c>
@@ -12940,16 +12850,16 @@
         <v>416</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.27136E-3</v>
       </c>
@@ -12966,42 +12876,36 @@
         <v>302</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>809</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -13021,8 +12925,11 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>4.0146105919003111E-8</v>
       </c>
@@ -13039,21 +12946,21 @@
         <v>419</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.2265240000000001E-3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>348</v>
@@ -13065,47 +12972,47 @@
         <v>348</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.2579291132186622E-8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9.2847034381941373E-3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
@@ -13117,18 +13024,18 @@
         <v>499</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.0805744449389311E-5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>501</v>
@@ -13140,18 +13047,18 @@
         <v>501</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.9244424664985413E-8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>500</v>
@@ -13163,14 +13070,14 @@
         <v>500</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>1.1370000000000001E-6</v>
       </c>
       <c r="B8" t="s">
@@ -13186,10 +13093,10 @@
         <v>302</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>809</v>
@@ -13202,30 +13109,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -13245,8 +13142,11 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>5.0294789999999994E-8</v>
       </c>
@@ -13263,42 +13163,42 @@
         <v>419</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1.9230769230769231E-4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.66918E-4</v>
       </c>
@@ -13315,10 +13215,10 @@
         <v>302</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
@@ -13331,30 +13231,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="A2" sqref="A2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -13374,13 +13264,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>267</v>
@@ -13392,47 +13285,47 @@
         <v>267</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>271</v>
@@ -13444,21 +13337,21 @@
         <v>271</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>281</v>
@@ -13470,21 +13363,21 @@
         <v>281</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>281</v>
@@ -13496,21 +13389,21 @@
         <v>281</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2.9996189999999998E-3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>282</v>
@@ -13522,21 +13415,21 @@
         <v>282</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>284</v>
@@ -13548,21 +13441,21 @@
         <v>284</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -13574,21 +13467,21 @@
         <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -13600,21 +13493,21 @@
         <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -13626,21 +13519,21 @@
         <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>287</v>
@@ -13652,21 +13545,21 @@
         <v>287</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>289</v>
@@ -13678,21 +13571,21 @@
         <v>289</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2.9983240000000001E-3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>301</v>
@@ -13704,47 +13597,47 @@
         <v>301</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>89.864674372709345</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>319</v>
@@ -13756,10 +13649,10 @@
         <v>319</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>809</v>
@@ -13770,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>323</v>
@@ -13782,21 +13675,21 @@
         <v>323</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>1.5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>329</v>
@@ -13808,10 +13701,10 @@
         <v>329</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>809</v>
@@ -13822,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>335</v>
@@ -13834,10 +13727,10 @@
         <v>335</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>809</v>
@@ -13848,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>336</v>
@@ -13860,10 +13753,10 @@
         <v>336</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>809</v>
@@ -13874,7 +13767,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>348</v>
@@ -13886,10 +13779,10 @@
         <v>348</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>809</v>
@@ -13900,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>355</v>
@@ -13912,10 +13805,10 @@
         <v>355</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>809</v>
@@ -13938,10 +13831,10 @@
         <v>416</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>809</v>
@@ -13952,22 +13845,22 @@
         <v>0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>809</v>
@@ -13978,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>421</v>
@@ -13990,10 +13883,10 @@
         <v>421</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>809</v>
@@ -14004,7 +13897,7 @@
         <v>0.04</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
@@ -14016,7 +13909,7 @@
         <v>499</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>809</v>
@@ -14039,10 +13932,10 @@
         <v>302</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>809</v>
@@ -14055,30 +13948,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -14098,65 +13981,68 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>7.2497745716862037</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.8124436429215507</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.13200000000000001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>287</v>
@@ -14168,21 +14054,21 @@
         <v>287</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>-5.2256119372476872E-2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
@@ -14194,17 +14080,11 @@
         <v>499</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14213,30 +14093,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -14256,13 +14126,16 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0.13179666400000001</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>284</v>
@@ -14274,21 +14147,21 @@
         <v>284</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>287</v>
@@ -14300,21 +14173,21 @@
         <v>287</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>-0.26400000000000001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
@@ -14327,20 +14200,11 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
